--- a/biology/Médecine/Edward_Selleck_Hare/Edward_Selleck_Hare.xlsx
+++ b/biology/Médecine/Edward_Selleck_Hare/Edward_Selleck_Hare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edward Selleck Hare est un médecin anglais né en 1812 et mort en 1838[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward Selleck Hare est un médecin anglais né en 1812 et mort en 1838.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edward Selleck Hare est né en 1812 de James et Louisa Hare près de Yoxall dans le Staffordshire. Il a ensuite grandi à Birmingham, et a fait ses études à Londres à l'University College. Diplômé en 1834, il a pris la tête du Staffordshire General Infirmary en 1837. Il est mort du typhus, contracté au Staffordshire General Infirmary, le 28 septembre 1938[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward Selleck Hare est né en 1812 de James et Louisa Hare près de Yoxall dans le Staffordshire. Il a ensuite grandi à Birmingham, et a fait ses études à Londres à l'University College. Diplômé en 1834, il a pris la tête du Staffordshire General Infirmary en 1837. Il est mort du typhus, contracté au Staffordshire General Infirmary, le 28 septembre 1938.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edward Selleck Hare a été le premier à rapporter un cas de tumeur cervicale associée à des symptômes ophtalmologiques, plus tard décrits par Horner et depuis connus sous le nom de syndrome de Claude-Bernard-Horner[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward Selleck Hare a été le premier à rapporter un cas de tumeur cervicale associée à des symptômes ophtalmologiques, plus tard décrits par Horner et depuis connus sous le nom de syndrome de Claude-Bernard-Horner,.
 </t>
         </is>
       </c>
